--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>23.2924521875443</v>
+        <v>0.2144083333333333</v>
       </c>
       <c r="H2">
-        <v>23.2924521875443</v>
+        <v>0.643225</v>
       </c>
       <c r="I2">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="J2">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.67957182098999</v>
+        <v>2.500933333333333</v>
       </c>
       <c r="N2">
-        <v>1.67957182098999</v>
+        <v>7.5028</v>
       </c>
       <c r="O2">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="P2">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="Q2">
-        <v>39.12134633595605</v>
+        <v>0.5362209477777777</v>
       </c>
       <c r="R2">
-        <v>39.12134633595605</v>
+        <v>4.82598853</v>
       </c>
       <c r="S2">
-        <v>0.08891109101210116</v>
+        <v>0.001114269554742168</v>
       </c>
       <c r="T2">
-        <v>0.08891109101210116</v>
+        <v>0.001114269554742168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>23.2924521875443</v>
+        <v>0.2144083333333333</v>
       </c>
       <c r="H3">
-        <v>23.2924521875443</v>
+        <v>0.643225</v>
       </c>
       <c r="I3">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="J3">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.74610171986846</v>
+        <v>7.782607</v>
       </c>
       <c r="N3">
-        <v>7.74610171986846</v>
+        <v>23.347821</v>
       </c>
       <c r="O3">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="P3">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="Q3">
-        <v>180.4257039498908</v>
+        <v>1.668655795858333</v>
       </c>
       <c r="R3">
-        <v>180.4257039498908</v>
+        <v>15.017902162725</v>
       </c>
       <c r="S3">
-        <v>0.4100535305470112</v>
+        <v>0.003467474290914037</v>
       </c>
       <c r="T3">
-        <v>0.4100535305470112</v>
+        <v>0.003467474290914037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>23.2924521875443</v>
+        <v>0.2144083333333333</v>
       </c>
       <c r="H4">
-        <v>23.2924521875443</v>
+        <v>0.643225</v>
       </c>
       <c r="I4">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="J4">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.45320023956502</v>
+        <v>4.565521</v>
       </c>
       <c r="N4">
-        <v>4.45320023956502</v>
+        <v>13.696563</v>
       </c>
       <c r="O4">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="P4">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="Q4">
-        <v>103.725953661629</v>
+        <v>0.9788857484083334</v>
       </c>
       <c r="R4">
-        <v>103.725953661629</v>
+        <v>8.809971735675001</v>
       </c>
       <c r="S4">
-        <v>0.2357379939618765</v>
+        <v>0.002034129012569714</v>
       </c>
       <c r="T4">
-        <v>0.2357379939618765</v>
+        <v>0.002034129012569714</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>23.2924521875443</v>
+        <v>0.2144083333333333</v>
       </c>
       <c r="H5">
-        <v>23.2924521875443</v>
+        <v>0.643225</v>
       </c>
       <c r="I5">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="J5">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.46191461506733</v>
+        <v>4.478761333333333</v>
       </c>
       <c r="N5">
-        <v>4.46191461506733</v>
+        <v>13.436284</v>
       </c>
       <c r="O5">
-        <v>0.2432782342205267</v>
+        <v>0.2317261188999595</v>
       </c>
       <c r="P5">
-        <v>0.2432782342205267</v>
+        <v>0.2317261188999595</v>
       </c>
       <c r="Q5">
-        <v>103.9289328363609</v>
+        <v>0.9602837528777777</v>
       </c>
       <c r="R5">
-        <v>103.9289328363609</v>
+        <v>8.6425537759</v>
       </c>
       <c r="S5">
-        <v>0.2361993047696173</v>
+        <v>0.001995473981722732</v>
       </c>
       <c r="T5">
-        <v>0.2361993047696173</v>
+        <v>0.001995473981722732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.698078370447083</v>
+        <v>23.971258</v>
       </c>
       <c r="H6">
-        <v>0.698078370447083</v>
+        <v>71.91377399999999</v>
       </c>
       <c r="I6">
-        <v>0.02909807970939389</v>
+        <v>0.9627648963950115</v>
       </c>
       <c r="J6">
-        <v>0.02909807970939389</v>
+        <v>0.9627648963950115</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.67957182098999</v>
+        <v>2.500933333333333</v>
       </c>
       <c r="N6">
-        <v>1.67957182098999</v>
+        <v>7.5028</v>
       </c>
       <c r="O6">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="P6">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="Q6">
-        <v>1.172472759845532</v>
+        <v>59.95051817413332</v>
       </c>
       <c r="R6">
-        <v>1.172472759845532</v>
+        <v>539.5546635671999</v>
       </c>
       <c r="S6">
-        <v>0.00266467905691743</v>
+        <v>0.1245774479145072</v>
       </c>
       <c r="T6">
-        <v>0.00266467905691743</v>
+        <v>0.1245774479145071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.698078370447083</v>
+        <v>23.971258</v>
       </c>
       <c r="H7">
-        <v>0.698078370447083</v>
+        <v>71.91377399999999</v>
       </c>
       <c r="I7">
-        <v>0.02909807970939389</v>
+        <v>0.9627648963950115</v>
       </c>
       <c r="J7">
-        <v>0.02909807970939389</v>
+        <v>0.9627648963950115</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.74610171986846</v>
+        <v>7.782607</v>
       </c>
       <c r="N7">
-        <v>7.74610171986846</v>
+        <v>23.347821</v>
       </c>
       <c r="O7">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="P7">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="Q7">
-        <v>5.407386065923122</v>
+        <v>186.558880309606</v>
       </c>
       <c r="R7">
-        <v>5.407386065923122</v>
+        <v>1679.029922786454</v>
       </c>
       <c r="S7">
-        <v>0.01228936730643601</v>
+        <v>0.387670197065727</v>
       </c>
       <c r="T7">
-        <v>0.01228936730643601</v>
+        <v>0.387670197065727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.698078370447083</v>
+        <v>23.971258</v>
       </c>
       <c r="H8">
-        <v>0.698078370447083</v>
+        <v>71.91377399999999</v>
       </c>
       <c r="I8">
-        <v>0.02909807970939389</v>
+        <v>0.9627648963950115</v>
       </c>
       <c r="J8">
-        <v>0.02909807970939389</v>
+        <v>0.9627648963950115</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.45320023956502</v>
+        <v>4.565521</v>
       </c>
       <c r="N8">
-        <v>4.45320023956502</v>
+        <v>13.696563</v>
       </c>
       <c r="O8">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="P8">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="Q8">
-        <v>3.108682766510109</v>
+        <v>109.441281795418</v>
       </c>
       <c r="R8">
-        <v>3.108682766510109</v>
+        <v>984.971536158762</v>
       </c>
       <c r="S8">
-        <v>0.007065103895130968</v>
+        <v>0.2274194785600397</v>
       </c>
       <c r="T8">
-        <v>0.007065103895130968</v>
+        <v>0.2274194785600397</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>23.971258</v>
+      </c>
+      <c r="H9">
+        <v>71.91377399999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9627648963950115</v>
+      </c>
+      <c r="J9">
+        <v>0.9627648963950115</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.478761333333333</v>
+      </c>
+      <c r="N9">
+        <v>13.436284</v>
+      </c>
+      <c r="O9">
+        <v>0.2317261188999595</v>
+      </c>
+      <c r="P9">
+        <v>0.2317261188999595</v>
+      </c>
+      <c r="Q9">
+        <v>107.3615434417573</v>
+      </c>
+      <c r="R9">
+        <v>966.2538909758158</v>
+      </c>
+      <c r="S9">
+        <v>0.2230977728547377</v>
+      </c>
+      <c r="T9">
+        <v>0.2230977728547377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7126843333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.138053</v>
+      </c>
+      <c r="I10">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="J10">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.500933333333333</v>
+      </c>
+      <c r="N10">
+        <v>7.5028</v>
+      </c>
+      <c r="O10">
+        <v>0.129395502869887</v>
+      </c>
+      <c r="P10">
+        <v>0.129395502869887</v>
+      </c>
+      <c r="Q10">
+        <v>1.782376005377778</v>
+      </c>
+      <c r="R10">
+        <v>16.0413840484</v>
+      </c>
+      <c r="S10">
+        <v>0.003703785400637656</v>
+      </c>
+      <c r="T10">
+        <v>0.003703785400637656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.698078370447083</v>
-      </c>
-      <c r="H9">
-        <v>0.698078370447083</v>
-      </c>
-      <c r="I9">
-        <v>0.02909807970939389</v>
-      </c>
-      <c r="J9">
-        <v>0.02909807970939389</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.46191461506733</v>
-      </c>
-      <c r="N9">
-        <v>4.46191461506733</v>
-      </c>
-      <c r="O9">
-        <v>0.2432782342205267</v>
-      </c>
-      <c r="P9">
-        <v>0.2432782342205267</v>
-      </c>
-      <c r="Q9">
-        <v>3.114766083560225</v>
-      </c>
-      <c r="R9">
-        <v>3.114766083560225</v>
-      </c>
-      <c r="S9">
-        <v>0.007078929450909482</v>
-      </c>
-      <c r="T9">
-        <v>0.007078929450909482</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7126843333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.138053</v>
+      </c>
+      <c r="I11">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="J11">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.782607</v>
+      </c>
+      <c r="N11">
+        <v>23.347821</v>
+      </c>
+      <c r="O11">
+        <v>0.4026634108880828</v>
+      </c>
+      <c r="P11">
+        <v>0.4026634108880828</v>
+      </c>
+      <c r="Q11">
+        <v>5.546542081390333</v>
+      </c>
+      <c r="R11">
+        <v>49.918878732513</v>
+      </c>
+      <c r="S11">
+        <v>0.01152573953144177</v>
+      </c>
+      <c r="T11">
+        <v>0.01152573953144177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7126843333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.138053</v>
+      </c>
+      <c r="I12">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="J12">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.565521</v>
+      </c>
+      <c r="N12">
+        <v>13.696563</v>
+      </c>
+      <c r="O12">
+        <v>0.2362149673420707</v>
+      </c>
+      <c r="P12">
+        <v>0.2362149673420707</v>
+      </c>
+      <c r="Q12">
+        <v>3.253775290204334</v>
+      </c>
+      <c r="R12">
+        <v>29.28397761183901</v>
+      </c>
+      <c r="S12">
+        <v>0.006761359769461255</v>
+      </c>
+      <c r="T12">
+        <v>0.006761359769461254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7126843333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.138053</v>
+      </c>
+      <c r="I13">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="J13">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.478761333333333</v>
+      </c>
+      <c r="N13">
+        <v>13.436284</v>
+      </c>
+      <c r="O13">
+        <v>0.2317261188999595</v>
+      </c>
+      <c r="P13">
+        <v>0.2317261188999595</v>
+      </c>
+      <c r="Q13">
+        <v>3.191943035005778</v>
+      </c>
+      <c r="R13">
+        <v>28.727487315052</v>
+      </c>
+      <c r="S13">
+        <v>0.006632872063499137</v>
+      </c>
+      <c r="T13">
+        <v>0.006632872063499137</v>
       </c>
     </row>
   </sheetData>
